--- a/sample/test.xlsx
+++ b/sample/test.xlsx
@@ -1,47 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitKoo\pyKoreanDiff\sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9BD5BA-26A7-4AB7-AD2F-95D61D547107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-28215" yWindow="5505" windowWidth="21705" windowHeight="15435" xr2:uid="{423372F8-C65D-4182-8878-70C9D25F0761}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>안녕하십니까?
+파이썬으로 하는 텍스트 비교입니다.
+잘 개발되길 염원합니다ㅎㅎ
+제가 부디 꼭 해내기를 기원합니다ㅋㅋ
+화이팅~</t>
+  </si>
+  <si>
+    <t>파이썬은 정말 최고일까요??
+한참 고민해야 합니다!!
+어쩌면 다른 언어가 더 나을 수도 있습니다..</t>
+  </si>
+  <si>
+    <t>I want to remove</t>
+  </si>
+  <si>
+    <t>안녕하세요. 개발은 재밌습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요.</t>
+  </si>
+  <si>
+    <t>파울루 벤투 감독은 지난 가나와의 2차전 경기 후 앤서니 테일러 주심의 판정에 불만을 품고 항의하다가 퇴장을 당했다. 그래서 그는 3일(이하 한국 시각) 열린 한국과 포르투갈의 2022 FIFA 카타르 월드컵 H조 최종전을 관중석에서 지켜봐야 했다.</t>
+  </si>
+  <si>
+    <t>안녕</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>생활가전</t>
+  </si>
+  <si>
+    <t>가전</t>
+  </si>
+  <si>
+    <t>가나다</t>
+  </si>
+  <si>
+    <t>가나다라마</t>
+  </si>
+  <si>
+    <t>가나다라마바사</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>CX</t>
   </si>
   <si>
     <t>안녕하세요
@@ -49,63 +84,76 @@
 잘 만들어지길 희망합니다.
 부디 잘 해낼 수 있기를 기원합니다ㅋㅋ
 화이팅하세요!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하십니까?
-파이썬으로 하는 텍스트 비교입니다.
-잘 개발되길 염원합니다ㅎㅎ
-제가 부디 꼭 해내기를 기원합니다ㅋㅋ
-화이팅~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이썬은 정말 최고일까요??
-한참 고민해야 합니다!!
-어쩌면 다른 언어가 더 나을 수도 있습니다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>python은 정말 최고일까요??
 한참 고민할 필요가 있습니다!!
 사실 자바가 더 좋을 수도 있어요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hello text compare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I want to remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요. 개발은 재밌습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤투 감독은 지난 가나와의 2차전 경기 후테일러 주심의 판정에 불만을 품고 항의하다가 퇴장을 당했다. 그래서 그는 3일(이하 한국 시각) 열린 한국과 포르투갈의 2022 피파 카타르 월드컵 H조 최종전을 관중석에서 지켜봐야 했다. 그럼 이만</t>
+  </si>
+  <si>
+    <t>삼성 전자</t>
+  </si>
+  <si>
+    <t>생활가전사업부</t>
+  </si>
+  <si>
+    <t>가전 사업부</t>
+  </si>
+  <si>
+    <t>라마바</t>
+  </si>
+  <si>
+    <t>라마가나다</t>
+  </si>
+  <si>
+    <t>가나다라마아사</t>
+  </si>
+  <si>
+    <t>가나다라마바바</t>
+  </si>
+  <si>
+    <t>aaac</t>
+  </si>
+  <si>
+    <t>caaa</t>
+  </si>
+  <si>
+    <t>aaaac</t>
+  </si>
+  <si>
+    <t>caaaa</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -117,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,38 +173,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,44 +217,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -230,32 +281,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -282,24 +315,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,212 +326,385 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D340298E-4CA2-4FC2-B4B2-4C151F3372C9}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="228.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>